--- a/SampleScrumToday.xlsx
+++ b/SampleScrumToday.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agda.timothy@cgic.cooperators.ca\Documents\+Web Dev Practice\Scrum Parser GH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>DEF0003670</t>
   </si>
   <si>
-    <t>Sue Try</t>
-  </si>
-  <si>
     <t>DEF0002160</t>
   </si>
   <si>
@@ -444,12 +441,15 @@
   </si>
   <si>
     <t>Policy does not display</t>
+  </si>
+  <si>
+    <t>Sue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,11 +537,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,6 +612,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -658,6 +661,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -706,6 +712,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -752,6 +761,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -800,6 +812,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -847,6 +862,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -893,6 +911,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1188,8 +1209,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:CU47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:CU49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,115 +1351,115 @@
       <c r="CU1" s="1"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="9"/>
-      <c r="CA2" s="9"/>
-      <c r="CB2" s="9"/>
-      <c r="CC2" s="9"/>
-      <c r="CD2" s="9"/>
-      <c r="CE2" s="9"/>
-      <c r="CF2" s="9"/>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="9"/>
-      <c r="CI2" s="9"/>
-      <c r="CJ2" s="9"/>
-      <c r="CK2" s="9"/>
-      <c r="CL2" s="9"/>
-      <c r="CM2" s="9"/>
-      <c r="CN2" s="9"/>
-      <c r="CO2" s="9"/>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="9"/>
-      <c r="CR2" s="9"/>
-      <c r="CS2" s="9"/>
-      <c r="CT2" s="9"/>
-      <c r="CU2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10"/>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10"/>
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
+      <c r="CS2" s="10"/>
+      <c r="CT2" s="10"/>
+      <c r="CU2" s="10"/>
     </row>
     <row r="3" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1451,7 +1472,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>17</v>
@@ -1556,115 +1577,115 @@
       <c r="CU3" s="1"/>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
-      <c r="BK4" s="9"/>
-      <c r="BL4" s="9"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="9"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="9"/>
-      <c r="BU4" s="9"/>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BY4" s="9"/>
-      <c r="BZ4" s="9"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-      <c r="CC4" s="9"/>
-      <c r="CD4" s="9"/>
-      <c r="CE4" s="9"/>
-      <c r="CF4" s="9"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="9"/>
-      <c r="CI4" s="9"/>
-      <c r="CJ4" s="9"/>
-      <c r="CK4" s="9"/>
-      <c r="CL4" s="9"/>
-      <c r="CM4" s="9"/>
-      <c r="CN4" s="9"/>
-      <c r="CO4" s="9"/>
-      <c r="CP4" s="9"/>
-      <c r="CQ4" s="9"/>
-      <c r="CR4" s="9"/>
-      <c r="CS4" s="9"/>
-      <c r="CT4" s="9"/>
-      <c r="CU4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
+      <c r="CS4" s="10"/>
+      <c r="CT4" s="10"/>
+      <c r="CU4" s="10"/>
     </row>
     <row r="5" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5" t="s">
@@ -1674,10 +1695,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
@@ -1782,115 +1803,115 @@
       <c r="CU5" s="1"/>
     </row>
     <row r="6" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
-      <c r="CC6" s="9"/>
-      <c r="CD6" s="9"/>
-      <c r="CE6" s="9"/>
-      <c r="CF6" s="9"/>
-      <c r="CG6" s="9"/>
-      <c r="CH6" s="9"/>
-      <c r="CI6" s="9"/>
-      <c r="CJ6" s="9"/>
-      <c r="CK6" s="9"/>
-      <c r="CL6" s="9"/>
-      <c r="CM6" s="9"/>
-      <c r="CN6" s="9"/>
-      <c r="CO6" s="9"/>
-      <c r="CP6" s="9"/>
-      <c r="CQ6" s="9"/>
-      <c r="CR6" s="9"/>
-      <c r="CS6" s="9"/>
-      <c r="CT6" s="9"/>
-      <c r="CU6" s="9"/>
+      <c r="A6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
     </row>
     <row r="7" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="5" t="s">
@@ -1900,10 +1921,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>17</v>
@@ -2010,10 +2031,10 @@
     <row r="8" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>22</v>
@@ -2025,10 +2046,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>17</v>
@@ -2133,115 +2154,115 @@
       <c r="CU8" s="1"/>
     </row>
     <row r="9" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
-      <c r="BF9" s="9"/>
-      <c r="BG9" s="9"/>
-      <c r="BH9" s="9"/>
-      <c r="BI9" s="9"/>
-      <c r="BJ9" s="9"/>
-      <c r="BK9" s="9"/>
-      <c r="BL9" s="9"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
-      <c r="BO9" s="9"/>
-      <c r="BP9" s="9"/>
-      <c r="BQ9" s="9"/>
-      <c r="BR9" s="9"/>
-      <c r="BS9" s="9"/>
-      <c r="BT9" s="9"/>
-      <c r="BU9" s="9"/>
-      <c r="BV9" s="9"/>
-      <c r="BW9" s="9"/>
-      <c r="BX9" s="9"/>
-      <c r="BY9" s="9"/>
-      <c r="BZ9" s="9"/>
-      <c r="CA9" s="9"/>
-      <c r="CB9" s="9"/>
-      <c r="CC9" s="9"/>
-      <c r="CD9" s="9"/>
-      <c r="CE9" s="9"/>
-      <c r="CF9" s="9"/>
-      <c r="CG9" s="9"/>
-      <c r="CH9" s="9"/>
-      <c r="CI9" s="9"/>
-      <c r="CJ9" s="9"/>
-      <c r="CK9" s="9"/>
-      <c r="CL9" s="9"/>
-      <c r="CM9" s="9"/>
-      <c r="CN9" s="9"/>
-      <c r="CO9" s="9"/>
-      <c r="CP9" s="9"/>
-      <c r="CQ9" s="9"/>
-      <c r="CR9" s="9"/>
-      <c r="CS9" s="9"/>
-      <c r="CT9" s="9"/>
-      <c r="CU9" s="9"/>
+      <c r="A9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="10"/>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="10"/>
+      <c r="BM9" s="10"/>
+      <c r="BN9" s="10"/>
+      <c r="BO9" s="10"/>
+      <c r="BP9" s="10"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="10"/>
+      <c r="BS9" s="10"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="10"/>
+      <c r="BV9" s="10"/>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="10"/>
+      <c r="BY9" s="10"/>
+      <c r="BZ9" s="10"/>
+      <c r="CA9" s="10"/>
+      <c r="CB9" s="10"/>
+      <c r="CC9" s="10"/>
+      <c r="CD9" s="10"/>
+      <c r="CE9" s="10"/>
+      <c r="CF9" s="10"/>
+      <c r="CG9" s="10"/>
+      <c r="CH9" s="10"/>
+      <c r="CI9" s="10"/>
+      <c r="CJ9" s="10"/>
+      <c r="CK9" s="10"/>
+      <c r="CL9" s="10"/>
+      <c r="CM9" s="10"/>
+      <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
+      <c r="CQ9" s="10"/>
+      <c r="CR9" s="10"/>
+      <c r="CS9" s="10"/>
+      <c r="CT9" s="10"/>
+      <c r="CU9" s="10"/>
     </row>
     <row r="10" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>24</v>
@@ -2253,10 +2274,10 @@
         <v>20</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>17</v>
@@ -2363,10 +2384,10 @@
     <row r="11" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="5" t="s">
@@ -2376,10 +2397,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>17</v>
@@ -2486,10 +2507,10 @@
     <row r="12" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>24</v>
@@ -2501,10 +2522,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
@@ -2611,10 +2632,10 @@
     <row r="13" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2626,10 +2647,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>17</v>
@@ -2734,115 +2755,115 @@
       <c r="CU13" s="1"/>
     </row>
     <row r="14" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="9"/>
-      <c r="BO14" s="9"/>
-      <c r="BP14" s="9"/>
-      <c r="BQ14" s="9"/>
-      <c r="BR14" s="9"/>
-      <c r="BS14" s="9"/>
-      <c r="BT14" s="9"/>
-      <c r="BU14" s="9"/>
-      <c r="BV14" s="9"/>
-      <c r="BW14" s="9"/>
-      <c r="BX14" s="9"/>
-      <c r="BY14" s="9"/>
-      <c r="BZ14" s="9"/>
-      <c r="CA14" s="9"/>
-      <c r="CB14" s="9"/>
-      <c r="CC14" s="9"/>
-      <c r="CD14" s="9"/>
-      <c r="CE14" s="9"/>
-      <c r="CF14" s="9"/>
-      <c r="CG14" s="9"/>
-      <c r="CH14" s="9"/>
-      <c r="CI14" s="9"/>
-      <c r="CJ14" s="9"/>
-      <c r="CK14" s="9"/>
-      <c r="CL14" s="9"/>
-      <c r="CM14" s="9"/>
-      <c r="CN14" s="9"/>
-      <c r="CO14" s="9"/>
-      <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
-      <c r="CR14" s="9"/>
-      <c r="CS14" s="9"/>
-      <c r="CT14" s="9"/>
-      <c r="CU14" s="9"/>
+      <c r="A14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="10"/>
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="10"/>
+      <c r="BV14" s="10"/>
+      <c r="BW14" s="10"/>
+      <c r="BX14" s="10"/>
+      <c r="BY14" s="10"/>
+      <c r="BZ14" s="10"/>
+      <c r="CA14" s="10"/>
+      <c r="CB14" s="10"/>
+      <c r="CC14" s="10"/>
+      <c r="CD14" s="10"/>
+      <c r="CE14" s="10"/>
+      <c r="CF14" s="10"/>
+      <c r="CG14" s="10"/>
+      <c r="CH14" s="10"/>
+      <c r="CI14" s="10"/>
+      <c r="CJ14" s="10"/>
+      <c r="CK14" s="10"/>
+      <c r="CL14" s="10"/>
+      <c r="CM14" s="10"/>
+      <c r="CN14" s="10"/>
+      <c r="CO14" s="10"/>
+      <c r="CP14" s="10"/>
+      <c r="CQ14" s="10"/>
+      <c r="CR14" s="10"/>
+      <c r="CS14" s="10"/>
+      <c r="CT14" s="10"/>
+      <c r="CU14" s="10"/>
     </row>
     <row r="15" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>22</v>
@@ -2854,10 +2875,10 @@
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>17</v>
@@ -2964,10 +2985,10 @@
     <row r="16" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>24</v>
@@ -2979,10 +3000,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>17</v>
@@ -3089,10 +3110,10 @@
     <row r="17" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
@@ -3104,10 +3125,10 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>17</v>
@@ -3214,10 +3235,10 @@
     <row r="18" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>14</v>
@@ -3229,10 +3250,10 @@
         <v>28</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>17</v>
@@ -3339,10 +3360,10 @@
     <row r="19" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
@@ -3352,10 +3373,10 @@
         <v>28</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>17</v>
@@ -3460,115 +3481,115 @@
       <c r="CU19" s="1"/>
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
-      <c r="BG20" s="9"/>
-      <c r="BH20" s="9"/>
-      <c r="BI20" s="9"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9"/>
-      <c r="BO20" s="9"/>
-      <c r="BP20" s="9"/>
-      <c r="BQ20" s="9"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="9"/>
-      <c r="BT20" s="9"/>
-      <c r="BU20" s="9"/>
-      <c r="BV20" s="9"/>
-      <c r="BW20" s="9"/>
-      <c r="BX20" s="9"/>
-      <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
-      <c r="CD20" s="9"/>
-      <c r="CE20" s="9"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="9"/>
-      <c r="CI20" s="9"/>
-      <c r="CJ20" s="9"/>
-      <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
+      <c r="A20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="10"/>
+      <c r="BH20" s="10"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+      <c r="BL20" s="10"/>
+      <c r="BM20" s="10"/>
+      <c r="BN20" s="10"/>
+      <c r="BO20" s="10"/>
+      <c r="BP20" s="10"/>
+      <c r="BQ20" s="10"/>
+      <c r="BR20" s="10"/>
+      <c r="BS20" s="10"/>
+      <c r="BT20" s="10"/>
+      <c r="BU20" s="10"/>
+      <c r="BV20" s="10"/>
+      <c r="BW20" s="10"/>
+      <c r="BX20" s="10"/>
+      <c r="BY20" s="10"/>
+      <c r="BZ20" s="10"/>
+      <c r="CA20" s="10"/>
+      <c r="CB20" s="10"/>
+      <c r="CC20" s="10"/>
+      <c r="CD20" s="10"/>
+      <c r="CE20" s="10"/>
+      <c r="CF20" s="10"/>
+      <c r="CG20" s="10"/>
+      <c r="CH20" s="10"/>
+      <c r="CI20" s="10"/>
+      <c r="CJ20" s="10"/>
+      <c r="CK20" s="10"/>
+      <c r="CL20" s="10"/>
+      <c r="CM20" s="10"/>
+      <c r="CN20" s="10"/>
+      <c r="CO20" s="10"/>
+      <c r="CP20" s="10"/>
+      <c r="CQ20" s="10"/>
+      <c r="CR20" s="10"/>
+      <c r="CS20" s="10"/>
+      <c r="CT20" s="10"/>
+      <c r="CU20" s="10"/>
     </row>
     <row r="21" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="5" t="s">
@@ -3578,10 +3599,10 @@
         <v>37</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>17</v>
@@ -3686,115 +3707,115 @@
       <c r="CU21" s="1"/>
     </row>
     <row r="22" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="9"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="9"/>
-      <c r="BY22" s="9"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-      <c r="CC22" s="9"/>
-      <c r="CD22" s="9"/>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="9"/>
-      <c r="CG22" s="9"/>
-      <c r="CH22" s="9"/>
-      <c r="CI22" s="9"/>
-      <c r="CJ22" s="9"/>
-      <c r="CK22" s="9"/>
-      <c r="CL22" s="9"/>
-      <c r="CM22" s="9"/>
-      <c r="CN22" s="9"/>
-      <c r="CO22" s="9"/>
-      <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
-      <c r="CR22" s="9"/>
-      <c r="CS22" s="9"/>
-      <c r="CT22" s="9"/>
-      <c r="CU22" s="9"/>
+      <c r="A22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="10"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="10"/>
+      <c r="BR22" s="10"/>
+      <c r="BS22" s="10"/>
+      <c r="BT22" s="10"/>
+      <c r="BU22" s="10"/>
+      <c r="BV22" s="10"/>
+      <c r="BW22" s="10"/>
+      <c r="BX22" s="10"/>
+      <c r="BY22" s="10"/>
+      <c r="BZ22" s="10"/>
+      <c r="CA22" s="10"/>
+      <c r="CB22" s="10"/>
+      <c r="CC22" s="10"/>
+      <c r="CD22" s="10"/>
+      <c r="CE22" s="10"/>
+      <c r="CF22" s="10"/>
+      <c r="CG22" s="10"/>
+      <c r="CH22" s="10"/>
+      <c r="CI22" s="10"/>
+      <c r="CJ22" s="10"/>
+      <c r="CK22" s="10"/>
+      <c r="CL22" s="10"/>
+      <c r="CM22" s="10"/>
+      <c r="CN22" s="10"/>
+      <c r="CO22" s="10"/>
+      <c r="CP22" s="10"/>
+      <c r="CQ22" s="10"/>
+      <c r="CR22" s="10"/>
+      <c r="CS22" s="10"/>
+      <c r="CT22" s="10"/>
+      <c r="CU22" s="10"/>
     </row>
     <row r="23" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
@@ -3806,10 +3827,10 @@
         <v>32</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>17</v>
@@ -3916,10 +3937,10 @@
     <row r="24" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>22</v>
@@ -3931,10 +3952,10 @@
         <v>32</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>17</v>
@@ -4039,115 +4060,115 @@
       <c r="CU24" s="1"/>
     </row>
     <row r="25" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
-      <c r="AW25" s="9"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
-      <c r="BG25" s="9"/>
-      <c r="BH25" s="9"/>
-      <c r="BI25" s="9"/>
-      <c r="BJ25" s="9"/>
-      <c r="BK25" s="9"/>
-      <c r="BL25" s="9"/>
-      <c r="BM25" s="9"/>
-      <c r="BN25" s="9"/>
-      <c r="BO25" s="9"/>
-      <c r="BP25" s="9"/>
-      <c r="BQ25" s="9"/>
-      <c r="BR25" s="9"/>
-      <c r="BS25" s="9"/>
-      <c r="BT25" s="9"/>
-      <c r="BU25" s="9"/>
-      <c r="BV25" s="9"/>
-      <c r="BW25" s="9"/>
-      <c r="BX25" s="9"/>
-      <c r="BY25" s="9"/>
-      <c r="BZ25" s="9"/>
-      <c r="CA25" s="9"/>
-      <c r="CB25" s="9"/>
-      <c r="CC25" s="9"/>
-      <c r="CD25" s="9"/>
-      <c r="CE25" s="9"/>
-      <c r="CF25" s="9"/>
-      <c r="CG25" s="9"/>
-      <c r="CH25" s="9"/>
-      <c r="CI25" s="9"/>
-      <c r="CJ25" s="9"/>
-      <c r="CK25" s="9"/>
-      <c r="CL25" s="9"/>
-      <c r="CM25" s="9"/>
-      <c r="CN25" s="9"/>
-      <c r="CO25" s="9"/>
-      <c r="CP25" s="9"/>
-      <c r="CQ25" s="9"/>
-      <c r="CR25" s="9"/>
-      <c r="CS25" s="9"/>
-      <c r="CT25" s="9"/>
-      <c r="CU25" s="9"/>
+      <c r="A25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+      <c r="BK25" s="10"/>
+      <c r="BL25" s="10"/>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
+      <c r="BO25" s="10"/>
+      <c r="BP25" s="10"/>
+      <c r="BQ25" s="10"/>
+      <c r="BR25" s="10"/>
+      <c r="BS25" s="10"/>
+      <c r="BT25" s="10"/>
+      <c r="BU25" s="10"/>
+      <c r="BV25" s="10"/>
+      <c r="BW25" s="10"/>
+      <c r="BX25" s="10"/>
+      <c r="BY25" s="10"/>
+      <c r="BZ25" s="10"/>
+      <c r="CA25" s="10"/>
+      <c r="CB25" s="10"/>
+      <c r="CC25" s="10"/>
+      <c r="CD25" s="10"/>
+      <c r="CE25" s="10"/>
+      <c r="CF25" s="10"/>
+      <c r="CG25" s="10"/>
+      <c r="CH25" s="10"/>
+      <c r="CI25" s="10"/>
+      <c r="CJ25" s="10"/>
+      <c r="CK25" s="10"/>
+      <c r="CL25" s="10"/>
+      <c r="CM25" s="10"/>
+      <c r="CN25" s="10"/>
+      <c r="CO25" s="10"/>
+      <c r="CP25" s="10"/>
+      <c r="CQ25" s="10"/>
+      <c r="CR25" s="10"/>
+      <c r="CS25" s="10"/>
+      <c r="CT25" s="10"/>
+      <c r="CU25" s="10"/>
     </row>
     <row r="26" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="5" t="s">
@@ -4157,10 +4178,10 @@
         <v>16</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>17</v>
@@ -4267,10 +4288,10 @@
     <row r="27" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>14</v>
@@ -4282,10 +4303,10 @@
         <v>16</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>17</v>
@@ -4392,10 +4413,10 @@
     <row r="28" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>14</v>
@@ -4407,10 +4428,10 @@
         <v>20</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>17</v>
@@ -4517,10 +4538,10 @@
     <row r="29" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>24</v>
@@ -4532,10 +4553,10 @@
         <v>20</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>17</v>
@@ -4640,115 +4661,115 @@
       <c r="CU29" s="1"/>
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="9"/>
-      <c r="AT30" s="9"/>
-      <c r="AU30" s="9"/>
-      <c r="AV30" s="9"/>
-      <c r="AW30" s="9"/>
-      <c r="AX30" s="9"/>
-      <c r="AY30" s="9"/>
-      <c r="AZ30" s="9"/>
-      <c r="BA30" s="9"/>
-      <c r="BB30" s="9"/>
-      <c r="BC30" s="9"/>
-      <c r="BD30" s="9"/>
-      <c r="BE30" s="9"/>
-      <c r="BF30" s="9"/>
-      <c r="BG30" s="9"/>
-      <c r="BH30" s="9"/>
-      <c r="BI30" s="9"/>
-      <c r="BJ30" s="9"/>
-      <c r="BK30" s="9"/>
-      <c r="BL30" s="9"/>
-      <c r="BM30" s="9"/>
-      <c r="BN30" s="9"/>
-      <c r="BO30" s="9"/>
-      <c r="BP30" s="9"/>
-      <c r="BQ30" s="9"/>
-      <c r="BR30" s="9"/>
-      <c r="BS30" s="9"/>
-      <c r="BT30" s="9"/>
-      <c r="BU30" s="9"/>
-      <c r="BV30" s="9"/>
-      <c r="BW30" s="9"/>
-      <c r="BX30" s="9"/>
-      <c r="BY30" s="9"/>
-      <c r="BZ30" s="9"/>
-      <c r="CA30" s="9"/>
-      <c r="CB30" s="9"/>
-      <c r="CC30" s="9"/>
-      <c r="CD30" s="9"/>
-      <c r="CE30" s="9"/>
-      <c r="CF30" s="9"/>
-      <c r="CG30" s="9"/>
-      <c r="CH30" s="9"/>
-      <c r="CI30" s="9"/>
-      <c r="CJ30" s="9"/>
-      <c r="CK30" s="9"/>
-      <c r="CL30" s="9"/>
-      <c r="CM30" s="9"/>
-      <c r="CN30" s="9"/>
-      <c r="CO30" s="9"/>
-      <c r="CP30" s="9"/>
-      <c r="CQ30" s="9"/>
-      <c r="CR30" s="9"/>
-      <c r="CS30" s="9"/>
-      <c r="CT30" s="9"/>
-      <c r="CU30" s="9"/>
+      <c r="A30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="10"/>
+      <c r="BS30" s="10"/>
+      <c r="BT30" s="10"/>
+      <c r="BU30" s="10"/>
+      <c r="BV30" s="10"/>
+      <c r="BW30" s="10"/>
+      <c r="BX30" s="10"/>
+      <c r="BY30" s="10"/>
+      <c r="BZ30" s="10"/>
+      <c r="CA30" s="10"/>
+      <c r="CB30" s="10"/>
+      <c r="CC30" s="10"/>
+      <c r="CD30" s="10"/>
+      <c r="CE30" s="10"/>
+      <c r="CF30" s="10"/>
+      <c r="CG30" s="10"/>
+      <c r="CH30" s="10"/>
+      <c r="CI30" s="10"/>
+      <c r="CJ30" s="10"/>
+      <c r="CK30" s="10"/>
+      <c r="CL30" s="10"/>
+      <c r="CM30" s="10"/>
+      <c r="CN30" s="10"/>
+      <c r="CO30" s="10"/>
+      <c r="CP30" s="10"/>
+      <c r="CQ30" s="10"/>
+      <c r="CR30" s="10"/>
+      <c r="CS30" s="10"/>
+      <c r="CT30" s="10"/>
+      <c r="CU30" s="10"/>
     </row>
     <row r="31" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="5" t="s">
@@ -4758,10 +4779,10 @@
         <v>32</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>17</v>
@@ -4866,115 +4887,115 @@
       <c r="CU31" s="1"/>
     </row>
     <row r="32" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
-      <c r="AW32" s="9"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="9"/>
-      <c r="BA32" s="9"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="9"/>
-      <c r="BD32" s="9"/>
-      <c r="BE32" s="9"/>
-      <c r="BF32" s="9"/>
-      <c r="BG32" s="9"/>
-      <c r="BH32" s="9"/>
-      <c r="BI32" s="9"/>
-      <c r="BJ32" s="9"/>
-      <c r="BK32" s="9"/>
-      <c r="BL32" s="9"/>
-      <c r="BM32" s="9"/>
-      <c r="BN32" s="9"/>
-      <c r="BO32" s="9"/>
-      <c r="BP32" s="9"/>
-      <c r="BQ32" s="9"/>
-      <c r="BR32" s="9"/>
-      <c r="BS32" s="9"/>
-      <c r="BT32" s="9"/>
-      <c r="BU32" s="9"/>
-      <c r="BV32" s="9"/>
-      <c r="BW32" s="9"/>
-      <c r="BX32" s="9"/>
-      <c r="BY32" s="9"/>
-      <c r="BZ32" s="9"/>
-      <c r="CA32" s="9"/>
-      <c r="CB32" s="9"/>
-      <c r="CC32" s="9"/>
-      <c r="CD32" s="9"/>
-      <c r="CE32" s="9"/>
-      <c r="CF32" s="9"/>
-      <c r="CG32" s="9"/>
-      <c r="CH32" s="9"/>
-      <c r="CI32" s="9"/>
-      <c r="CJ32" s="9"/>
-      <c r="CK32" s="9"/>
-      <c r="CL32" s="9"/>
-      <c r="CM32" s="9"/>
-      <c r="CN32" s="9"/>
-      <c r="CO32" s="9"/>
-      <c r="CP32" s="9"/>
-      <c r="CQ32" s="9"/>
-      <c r="CR32" s="9"/>
-      <c r="CS32" s="9"/>
-      <c r="CT32" s="9"/>
-      <c r="CU32" s="9"/>
+      <c r="A32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="10"/>
+      <c r="BF32" s="10"/>
+      <c r="BG32" s="10"/>
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="10"/>
+      <c r="BK32" s="10"/>
+      <c r="BL32" s="10"/>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
+      <c r="BP32" s="10"/>
+      <c r="BQ32" s="10"/>
+      <c r="BR32" s="10"/>
+      <c r="BS32" s="10"/>
+      <c r="BT32" s="10"/>
+      <c r="BU32" s="10"/>
+      <c r="BV32" s="10"/>
+      <c r="BW32" s="10"/>
+      <c r="BX32" s="10"/>
+      <c r="BY32" s="10"/>
+      <c r="BZ32" s="10"/>
+      <c r="CA32" s="10"/>
+      <c r="CB32" s="10"/>
+      <c r="CC32" s="10"/>
+      <c r="CD32" s="10"/>
+      <c r="CE32" s="10"/>
+      <c r="CF32" s="10"/>
+      <c r="CG32" s="10"/>
+      <c r="CH32" s="10"/>
+      <c r="CI32" s="10"/>
+      <c r="CJ32" s="10"/>
+      <c r="CK32" s="10"/>
+      <c r="CL32" s="10"/>
+      <c r="CM32" s="10"/>
+      <c r="CN32" s="10"/>
+      <c r="CO32" s="10"/>
+      <c r="CP32" s="10"/>
+      <c r="CQ32" s="10"/>
+      <c r="CR32" s="10"/>
+      <c r="CS32" s="10"/>
+      <c r="CT32" s="10"/>
+      <c r="CU32" s="10"/>
     </row>
     <row r="33" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>22</v>
@@ -4986,10 +5007,10 @@
         <v>20</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>17</v>
@@ -5096,10 +5117,10 @@
     <row r="34" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>22</v>
@@ -5111,10 +5132,10 @@
         <v>16</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>17</v>
@@ -5221,10 +5242,10 @@
     <row r="35" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>22</v>
@@ -5236,10 +5257,10 @@
         <v>16</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>17</v>
@@ -5346,10 +5367,10 @@
     <row r="36" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>22</v>
@@ -5361,10 +5382,10 @@
         <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>17</v>
@@ -5471,10 +5492,10 @@
     <row r="37" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>22</v>
@@ -5486,10 +5507,10 @@
         <v>16</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>17</v>
@@ -5596,10 +5617,10 @@
     <row r="38" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>22</v>
@@ -5611,10 +5632,10 @@
         <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>17</v>
@@ -5721,10 +5742,10 @@
     <row r="39" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>22</v>
@@ -5736,10 +5757,10 @@
         <v>20</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>17</v>
@@ -5846,10 +5867,10 @@
     <row r="40" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>22</v>
@@ -5861,10 +5882,10 @@
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>17</v>
@@ -5969,115 +5990,115 @@
       <c r="CU40" s="1"/>
     </row>
     <row r="41" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="9"/>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="9"/>
-      <c r="AP41" s="9"/>
-      <c r="AQ41" s="9"/>
-      <c r="AR41" s="9"/>
-      <c r="AS41" s="9"/>
-      <c r="AT41" s="9"/>
-      <c r="AU41" s="9"/>
-      <c r="AV41" s="9"/>
-      <c r="AW41" s="9"/>
-      <c r="AX41" s="9"/>
-      <c r="AY41" s="9"/>
-      <c r="AZ41" s="9"/>
-      <c r="BA41" s="9"/>
-      <c r="BB41" s="9"/>
-      <c r="BC41" s="9"/>
-      <c r="BD41" s="9"/>
-      <c r="BE41" s="9"/>
-      <c r="BF41" s="9"/>
-      <c r="BG41" s="9"/>
-      <c r="BH41" s="9"/>
-      <c r="BI41" s="9"/>
-      <c r="BJ41" s="9"/>
-      <c r="BK41" s="9"/>
-      <c r="BL41" s="9"/>
-      <c r="BM41" s="9"/>
-      <c r="BN41" s="9"/>
-      <c r="BO41" s="9"/>
-      <c r="BP41" s="9"/>
-      <c r="BQ41" s="9"/>
-      <c r="BR41" s="9"/>
-      <c r="BS41" s="9"/>
-      <c r="BT41" s="9"/>
-      <c r="BU41" s="9"/>
-      <c r="BV41" s="9"/>
-      <c r="BW41" s="9"/>
-      <c r="BX41" s="9"/>
-      <c r="BY41" s="9"/>
-      <c r="BZ41" s="9"/>
-      <c r="CA41" s="9"/>
-      <c r="CB41" s="9"/>
-      <c r="CC41" s="9"/>
-      <c r="CD41" s="9"/>
-      <c r="CE41" s="9"/>
-      <c r="CF41" s="9"/>
-      <c r="CG41" s="9"/>
-      <c r="CH41" s="9"/>
-      <c r="CI41" s="9"/>
-      <c r="CJ41" s="9"/>
-      <c r="CK41" s="9"/>
-      <c r="CL41" s="9"/>
-      <c r="CM41" s="9"/>
-      <c r="CN41" s="9"/>
-      <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
-      <c r="CS41" s="9"/>
-      <c r="CT41" s="9"/>
-      <c r="CU41" s="9"/>
+      <c r="A41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="10"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="10"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BI41" s="10"/>
+      <c r="BJ41" s="10"/>
+      <c r="BK41" s="10"/>
+      <c r="BL41" s="10"/>
+      <c r="BM41" s="10"/>
+      <c r="BN41" s="10"/>
+      <c r="BO41" s="10"/>
+      <c r="BP41" s="10"/>
+      <c r="BQ41" s="10"/>
+      <c r="BR41" s="10"/>
+      <c r="BS41" s="10"/>
+      <c r="BT41" s="10"/>
+      <c r="BU41" s="10"/>
+      <c r="BV41" s="10"/>
+      <c r="BW41" s="10"/>
+      <c r="BX41" s="10"/>
+      <c r="BY41" s="10"/>
+      <c r="BZ41" s="10"/>
+      <c r="CA41" s="10"/>
+      <c r="CB41" s="10"/>
+      <c r="CC41" s="10"/>
+      <c r="CD41" s="10"/>
+      <c r="CE41" s="10"/>
+      <c r="CF41" s="10"/>
+      <c r="CG41" s="10"/>
+      <c r="CH41" s="10"/>
+      <c r="CI41" s="10"/>
+      <c r="CJ41" s="10"/>
+      <c r="CK41" s="10"/>
+      <c r="CL41" s="10"/>
+      <c r="CM41" s="10"/>
+      <c r="CN41" s="10"/>
+      <c r="CO41" s="10"/>
+      <c r="CP41" s="10"/>
+      <c r="CQ41" s="10"/>
+      <c r="CR41" s="10"/>
+      <c r="CS41" s="10"/>
+      <c r="CT41" s="10"/>
+      <c r="CU41" s="10"/>
     </row>
     <row r="42" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>38</v>
@@ -6089,10 +6110,10 @@
         <v>32</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>17</v>
@@ -6197,115 +6218,115 @@
       <c r="CU42" s="1"/>
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
-      <c r="AL43" s="9"/>
-      <c r="AM43" s="9"/>
-      <c r="AN43" s="9"/>
-      <c r="AO43" s="9"/>
-      <c r="AP43" s="9"/>
-      <c r="AQ43" s="9"/>
-      <c r="AR43" s="9"/>
-      <c r="AS43" s="9"/>
-      <c r="AT43" s="9"/>
-      <c r="AU43" s="9"/>
-      <c r="AV43" s="9"/>
-      <c r="AW43" s="9"/>
-      <c r="AX43" s="9"/>
-      <c r="AY43" s="9"/>
-      <c r="AZ43" s="9"/>
-      <c r="BA43" s="9"/>
-      <c r="BB43" s="9"/>
-      <c r="BC43" s="9"/>
-      <c r="BD43" s="9"/>
-      <c r="BE43" s="9"/>
-      <c r="BF43" s="9"/>
-      <c r="BG43" s="9"/>
-      <c r="BH43" s="9"/>
-      <c r="BI43" s="9"/>
-      <c r="BJ43" s="9"/>
-      <c r="BK43" s="9"/>
-      <c r="BL43" s="9"/>
-      <c r="BM43" s="9"/>
-      <c r="BN43" s="9"/>
-      <c r="BO43" s="9"/>
-      <c r="BP43" s="9"/>
-      <c r="BQ43" s="9"/>
-      <c r="BR43" s="9"/>
-      <c r="BS43" s="9"/>
-      <c r="BT43" s="9"/>
-      <c r="BU43" s="9"/>
-      <c r="BV43" s="9"/>
-      <c r="BW43" s="9"/>
-      <c r="BX43" s="9"/>
-      <c r="BY43" s="9"/>
-      <c r="BZ43" s="9"/>
-      <c r="CA43" s="9"/>
-      <c r="CB43" s="9"/>
-      <c r="CC43" s="9"/>
-      <c r="CD43" s="9"/>
-      <c r="CE43" s="9"/>
-      <c r="CF43" s="9"/>
-      <c r="CG43" s="9"/>
-      <c r="CH43" s="9"/>
-      <c r="CI43" s="9"/>
-      <c r="CJ43" s="9"/>
-      <c r="CK43" s="9"/>
-      <c r="CL43" s="9"/>
-      <c r="CM43" s="9"/>
-      <c r="CN43" s="9"/>
-      <c r="CO43" s="9"/>
-      <c r="CP43" s="9"/>
-      <c r="CQ43" s="9"/>
-      <c r="CR43" s="9"/>
-      <c r="CS43" s="9"/>
-      <c r="CT43" s="9"/>
-      <c r="CU43" s="9"/>
+      <c r="A43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="10"/>
+      <c r="BB43" s="10"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="10"/>
+      <c r="BE43" s="10"/>
+      <c r="BF43" s="10"/>
+      <c r="BG43" s="10"/>
+      <c r="BH43" s="10"/>
+      <c r="BI43" s="10"/>
+      <c r="BJ43" s="10"/>
+      <c r="BK43" s="10"/>
+      <c r="BL43" s="10"/>
+      <c r="BM43" s="10"/>
+      <c r="BN43" s="10"/>
+      <c r="BO43" s="10"/>
+      <c r="BP43" s="10"/>
+      <c r="BQ43" s="10"/>
+      <c r="BR43" s="10"/>
+      <c r="BS43" s="10"/>
+      <c r="BT43" s="10"/>
+      <c r="BU43" s="10"/>
+      <c r="BV43" s="10"/>
+      <c r="BW43" s="10"/>
+      <c r="BX43" s="10"/>
+      <c r="BY43" s="10"/>
+      <c r="BZ43" s="10"/>
+      <c r="CA43" s="10"/>
+      <c r="CB43" s="10"/>
+      <c r="CC43" s="10"/>
+      <c r="CD43" s="10"/>
+      <c r="CE43" s="10"/>
+      <c r="CF43" s="10"/>
+      <c r="CG43" s="10"/>
+      <c r="CH43" s="10"/>
+      <c r="CI43" s="10"/>
+      <c r="CJ43" s="10"/>
+      <c r="CK43" s="10"/>
+      <c r="CL43" s="10"/>
+      <c r="CM43" s="10"/>
+      <c r="CN43" s="10"/>
+      <c r="CO43" s="10"/>
+      <c r="CP43" s="10"/>
+      <c r="CQ43" s="10"/>
+      <c r="CR43" s="10"/>
+      <c r="CS43" s="10"/>
+      <c r="CT43" s="10"/>
+      <c r="CU43" s="10"/>
     </row>
     <row r="44" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
@@ -6315,10 +6336,10 @@
         <v>16</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>17</v>
@@ -6425,10 +6446,10 @@
     <row r="45" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5" t="s">
@@ -6438,10 +6459,10 @@
         <v>16</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>17</v>
@@ -6548,10 +6569,10 @@
     <row r="46" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="5" t="s">
@@ -6561,10 +6582,10 @@
         <v>20</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>17</v>
@@ -6669,115 +6690,115 @@
       <c r="CU46" s="1"/>
     </row>
     <row r="47" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9"/>
-      <c r="AO47" s="9"/>
-      <c r="AP47" s="9"/>
-      <c r="AQ47" s="9"/>
-      <c r="AR47" s="9"/>
-      <c r="AS47" s="9"/>
-      <c r="AT47" s="9"/>
-      <c r="AU47" s="9"/>
-      <c r="AV47" s="9"/>
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="9"/>
-      <c r="AY47" s="9"/>
-      <c r="AZ47" s="9"/>
-      <c r="BA47" s="9"/>
-      <c r="BB47" s="9"/>
-      <c r="BC47" s="9"/>
-      <c r="BD47" s="9"/>
-      <c r="BE47" s="9"/>
-      <c r="BF47" s="9"/>
-      <c r="BG47" s="9"/>
-      <c r="BH47" s="9"/>
-      <c r="BI47" s="9"/>
-      <c r="BJ47" s="9"/>
-      <c r="BK47" s="9"/>
-      <c r="BL47" s="9"/>
-      <c r="BM47" s="9"/>
-      <c r="BN47" s="9"/>
-      <c r="BO47" s="9"/>
-      <c r="BP47" s="9"/>
-      <c r="BQ47" s="9"/>
-      <c r="BR47" s="9"/>
-      <c r="BS47" s="9"/>
-      <c r="BT47" s="9"/>
-      <c r="BU47" s="9"/>
-      <c r="BV47" s="9"/>
-      <c r="BW47" s="9"/>
-      <c r="BX47" s="9"/>
-      <c r="BY47" s="9"/>
-      <c r="BZ47" s="9"/>
-      <c r="CA47" s="9"/>
-      <c r="CB47" s="9"/>
-      <c r="CC47" s="9"/>
-      <c r="CD47" s="9"/>
-      <c r="CE47" s="9"/>
-      <c r="CF47" s="9"/>
-      <c r="CG47" s="9"/>
-      <c r="CH47" s="9"/>
-      <c r="CI47" s="9"/>
-      <c r="CJ47" s="9"/>
-      <c r="CK47" s="9"/>
-      <c r="CL47" s="9"/>
-      <c r="CM47" s="9"/>
-      <c r="CN47" s="9"/>
-      <c r="CO47" s="9"/>
-      <c r="CP47" s="9"/>
-      <c r="CQ47" s="9"/>
-      <c r="CR47" s="9"/>
-      <c r="CS47" s="9"/>
-      <c r="CT47" s="9"/>
-      <c r="CU47" s="9"/>
+      <c r="A47" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="10"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="10"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
+      <c r="BI47" s="10"/>
+      <c r="BJ47" s="10"/>
+      <c r="BK47" s="10"/>
+      <c r="BL47" s="10"/>
+      <c r="BM47" s="10"/>
+      <c r="BN47" s="10"/>
+      <c r="BO47" s="10"/>
+      <c r="BP47" s="10"/>
+      <c r="BQ47" s="10"/>
+      <c r="BR47" s="10"/>
+      <c r="BS47" s="10"/>
+      <c r="BT47" s="10"/>
+      <c r="BU47" s="10"/>
+      <c r="BV47" s="10"/>
+      <c r="BW47" s="10"/>
+      <c r="BX47" s="10"/>
+      <c r="BY47" s="10"/>
+      <c r="BZ47" s="10"/>
+      <c r="CA47" s="10"/>
+      <c r="CB47" s="10"/>
+      <c r="CC47" s="10"/>
+      <c r="CD47" s="10"/>
+      <c r="CE47" s="10"/>
+      <c r="CF47" s="10"/>
+      <c r="CG47" s="10"/>
+      <c r="CH47" s="10"/>
+      <c r="CI47" s="10"/>
+      <c r="CJ47" s="10"/>
+      <c r="CK47" s="10"/>
+      <c r="CL47" s="10"/>
+      <c r="CM47" s="10"/>
+      <c r="CN47" s="10"/>
+      <c r="CO47" s="10"/>
+      <c r="CP47" s="10"/>
+      <c r="CQ47" s="10"/>
+      <c r="CR47" s="10"/>
+      <c r="CS47" s="10"/>
+      <c r="CT47" s="10"/>
+      <c r="CU47" s="10"/>
     </row>
     <row r="48" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="5" t="s">
@@ -6787,10 +6808,10 @@
         <v>16</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>17</v>
@@ -6895,128 +6916,128 @@
       <c r="CU48" s="1"/>
     </row>
     <row r="49" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="9"/>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="9"/>
-      <c r="AL49" s="9"/>
-      <c r="AM49" s="9"/>
-      <c r="AN49" s="9"/>
-      <c r="AO49" s="9"/>
-      <c r="AP49" s="9"/>
-      <c r="AQ49" s="9"/>
-      <c r="AR49" s="9"/>
-      <c r="AS49" s="9"/>
-      <c r="AT49" s="9"/>
-      <c r="AU49" s="9"/>
-      <c r="AV49" s="9"/>
-      <c r="AW49" s="9"/>
-      <c r="AX49" s="9"/>
-      <c r="AY49" s="9"/>
-      <c r="AZ49" s="9"/>
-      <c r="BA49" s="9"/>
-      <c r="BB49" s="9"/>
-      <c r="BC49" s="9"/>
-      <c r="BD49" s="9"/>
-      <c r="BE49" s="9"/>
-      <c r="BF49" s="9"/>
-      <c r="BG49" s="9"/>
-      <c r="BH49" s="9"/>
-      <c r="BI49" s="9"/>
-      <c r="BJ49" s="9"/>
-      <c r="BK49" s="9"/>
-      <c r="BL49" s="9"/>
-      <c r="BM49" s="9"/>
-      <c r="BN49" s="9"/>
-      <c r="BO49" s="9"/>
-      <c r="BP49" s="9"/>
-      <c r="BQ49" s="9"/>
-      <c r="BR49" s="9"/>
-      <c r="BS49" s="9"/>
-      <c r="BT49" s="9"/>
-      <c r="BU49" s="9"/>
-      <c r="BV49" s="9"/>
-      <c r="BW49" s="9"/>
-      <c r="BX49" s="9"/>
-      <c r="BY49" s="9"/>
-      <c r="BZ49" s="9"/>
-      <c r="CA49" s="9"/>
-      <c r="CB49" s="9"/>
-      <c r="CC49" s="9"/>
-      <c r="CD49" s="9"/>
-      <c r="CE49" s="9"/>
-      <c r="CF49" s="9"/>
-      <c r="CG49" s="9"/>
-      <c r="CH49" s="9"/>
-      <c r="CI49" s="9"/>
-      <c r="CJ49" s="9"/>
-      <c r="CK49" s="9"/>
-      <c r="CL49" s="9"/>
-      <c r="CM49" s="9"/>
-      <c r="CN49" s="9"/>
-      <c r="CO49" s="9"/>
-      <c r="CP49" s="9"/>
-      <c r="CQ49" s="9"/>
-      <c r="CR49" s="9"/>
-      <c r="CS49" s="9"/>
-      <c r="CT49" s="9"/>
-      <c r="CU49" s="9"/>
+      <c r="A49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="10"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="10"/>
+      <c r="AZ49" s="10"/>
+      <c r="BA49" s="10"/>
+      <c r="BB49" s="10"/>
+      <c r="BC49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+      <c r="BG49" s="10"/>
+      <c r="BH49" s="10"/>
+      <c r="BI49" s="10"/>
+      <c r="BJ49" s="10"/>
+      <c r="BK49" s="10"/>
+      <c r="BL49" s="10"/>
+      <c r="BM49" s="10"/>
+      <c r="BN49" s="10"/>
+      <c r="BO49" s="10"/>
+      <c r="BP49" s="10"/>
+      <c r="BQ49" s="10"/>
+      <c r="BR49" s="10"/>
+      <c r="BS49" s="10"/>
+      <c r="BT49" s="10"/>
+      <c r="BU49" s="10"/>
+      <c r="BV49" s="10"/>
+      <c r="BW49" s="10"/>
+      <c r="BX49" s="10"/>
+      <c r="BY49" s="10"/>
+      <c r="BZ49" s="10"/>
+      <c r="CA49" s="10"/>
+      <c r="CB49" s="10"/>
+      <c r="CC49" s="10"/>
+      <c r="CD49" s="10"/>
+      <c r="CE49" s="10"/>
+      <c r="CF49" s="10"/>
+      <c r="CG49" s="10"/>
+      <c r="CH49" s="10"/>
+      <c r="CI49" s="10"/>
+      <c r="CJ49" s="10"/>
+      <c r="CK49" s="10"/>
+      <c r="CL49" s="10"/>
+      <c r="CM49" s="10"/>
+      <c r="CN49" s="10"/>
+      <c r="CO49" s="10"/>
+      <c r="CP49" s="10"/>
+      <c r="CQ49" s="10"/>
+      <c r="CR49" s="10"/>
+      <c r="CS49" s="10"/>
+      <c r="CT49" s="10"/>
+      <c r="CU49" s="10"/>
     </row>
     <row r="50" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>17</v>
@@ -7123,25 +7144,25 @@
     <row r="51" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>17</v>
@@ -7248,23 +7269,23 @@
     <row r="52" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>17</v>
@@ -7369,128 +7390,128 @@
       <c r="CU52" s="1"/>
     </row>
     <row r="53" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="9"/>
-      <c r="AJ53" s="9"/>
-      <c r="AK53" s="9"/>
-      <c r="AL53" s="9"/>
-      <c r="AM53" s="9"/>
-      <c r="AN53" s="9"/>
-      <c r="AO53" s="9"/>
-      <c r="AP53" s="9"/>
-      <c r="AQ53" s="9"/>
-      <c r="AR53" s="9"/>
-      <c r="AS53" s="9"/>
-      <c r="AT53" s="9"/>
-      <c r="AU53" s="9"/>
-      <c r="AV53" s="9"/>
-      <c r="AW53" s="9"/>
-      <c r="AX53" s="9"/>
-      <c r="AY53" s="9"/>
-      <c r="AZ53" s="9"/>
-      <c r="BA53" s="9"/>
-      <c r="BB53" s="9"/>
-      <c r="BC53" s="9"/>
-      <c r="BD53" s="9"/>
-      <c r="BE53" s="9"/>
-      <c r="BF53" s="9"/>
-      <c r="BG53" s="9"/>
-      <c r="BH53" s="9"/>
-      <c r="BI53" s="9"/>
-      <c r="BJ53" s="9"/>
-      <c r="BK53" s="9"/>
-      <c r="BL53" s="9"/>
-      <c r="BM53" s="9"/>
-      <c r="BN53" s="9"/>
-      <c r="BO53" s="9"/>
-      <c r="BP53" s="9"/>
-      <c r="BQ53" s="9"/>
-      <c r="BR53" s="9"/>
-      <c r="BS53" s="9"/>
-      <c r="BT53" s="9"/>
-      <c r="BU53" s="9"/>
-      <c r="BV53" s="9"/>
-      <c r="BW53" s="9"/>
-      <c r="BX53" s="9"/>
-      <c r="BY53" s="9"/>
-      <c r="BZ53" s="9"/>
-      <c r="CA53" s="9"/>
-      <c r="CB53" s="9"/>
-      <c r="CC53" s="9"/>
-      <c r="CD53" s="9"/>
-      <c r="CE53" s="9"/>
-      <c r="CF53" s="9"/>
-      <c r="CG53" s="9"/>
-      <c r="CH53" s="9"/>
-      <c r="CI53" s="9"/>
-      <c r="CJ53" s="9"/>
-      <c r="CK53" s="9"/>
-      <c r="CL53" s="9"/>
-      <c r="CM53" s="9"/>
-      <c r="CN53" s="9"/>
-      <c r="CO53" s="9"/>
-      <c r="CP53" s="9"/>
-      <c r="CQ53" s="9"/>
-      <c r="CR53" s="9"/>
-      <c r="CS53" s="9"/>
-      <c r="CT53" s="9"/>
-      <c r="CU53" s="9"/>
+      <c r="A53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="10"/>
+      <c r="AQ53" s="10"/>
+      <c r="AR53" s="10"/>
+      <c r="AS53" s="10"/>
+      <c r="AT53" s="10"/>
+      <c r="AU53" s="10"/>
+      <c r="AV53" s="10"/>
+      <c r="AW53" s="10"/>
+      <c r="AX53" s="10"/>
+      <c r="AY53" s="10"/>
+      <c r="AZ53" s="10"/>
+      <c r="BA53" s="10"/>
+      <c r="BB53" s="10"/>
+      <c r="BC53" s="10"/>
+      <c r="BD53" s="10"/>
+      <c r="BE53" s="10"/>
+      <c r="BF53" s="10"/>
+      <c r="BG53" s="10"/>
+      <c r="BH53" s="10"/>
+      <c r="BI53" s="10"/>
+      <c r="BJ53" s="10"/>
+      <c r="BK53" s="10"/>
+      <c r="BL53" s="10"/>
+      <c r="BM53" s="10"/>
+      <c r="BN53" s="10"/>
+      <c r="BO53" s="10"/>
+      <c r="BP53" s="10"/>
+      <c r="BQ53" s="10"/>
+      <c r="BR53" s="10"/>
+      <c r="BS53" s="10"/>
+      <c r="BT53" s="10"/>
+      <c r="BU53" s="10"/>
+      <c r="BV53" s="10"/>
+      <c r="BW53" s="10"/>
+      <c r="BX53" s="10"/>
+      <c r="BY53" s="10"/>
+      <c r="BZ53" s="10"/>
+      <c r="CA53" s="10"/>
+      <c r="CB53" s="10"/>
+      <c r="CC53" s="10"/>
+      <c r="CD53" s="10"/>
+      <c r="CE53" s="10"/>
+      <c r="CF53" s="10"/>
+      <c r="CG53" s="10"/>
+      <c r="CH53" s="10"/>
+      <c r="CI53" s="10"/>
+      <c r="CJ53" s="10"/>
+      <c r="CK53" s="10"/>
+      <c r="CL53" s="10"/>
+      <c r="CM53" s="10"/>
+      <c r="CN53" s="10"/>
+      <c r="CO53" s="10"/>
+      <c r="CP53" s="10"/>
+      <c r="CQ53" s="10"/>
+      <c r="CR53" s="10"/>
+      <c r="CS53" s="10"/>
+      <c r="CT53" s="10"/>
+      <c r="CU53" s="10"/>
     </row>
     <row r="54" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>17</v>
@@ -7597,25 +7618,25 @@
     <row r="55" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>17</v>
@@ -7722,23 +7743,23 @@
     <row r="56" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>17</v>
@@ -7845,23 +7866,23 @@
     <row r="57" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>17</v>
@@ -7968,23 +7989,23 @@
     <row r="58" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>17</v>
@@ -8089,310 +8110,316 @@
       <c r="CU58" s="1"/>
     </row>
     <row r="59" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="10"/>
-      <c r="AI59" s="10"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
-      <c r="AL59" s="10"/>
-      <c r="AM59" s="10"/>
-      <c r="AN59" s="10"/>
-      <c r="AO59" s="10"/>
-      <c r="AP59" s="10"/>
-      <c r="AQ59" s="10"/>
-      <c r="AR59" s="10"/>
-      <c r="AS59" s="10"/>
-      <c r="AT59" s="10"/>
-      <c r="AU59" s="10"/>
-      <c r="AV59" s="10"/>
-      <c r="AW59" s="10"/>
-      <c r="AX59" s="10"/>
-      <c r="AY59" s="10"/>
-      <c r="AZ59" s="10"/>
-      <c r="BA59" s="10"/>
-      <c r="BB59" s="10"/>
-      <c r="BC59" s="10"/>
-      <c r="BD59" s="10"/>
-      <c r="BE59" s="10"/>
-      <c r="BF59" s="10"/>
-      <c r="BG59" s="10"/>
-      <c r="BH59" s="10"/>
-      <c r="BI59" s="10"/>
-      <c r="BJ59" s="10"/>
-      <c r="BK59" s="10"/>
-      <c r="BL59" s="10"/>
-      <c r="BM59" s="10"/>
-      <c r="BN59" s="10"/>
-      <c r="BO59" s="10"/>
-      <c r="BP59" s="10"/>
-      <c r="BQ59" s="10"/>
-      <c r="BR59" s="10"/>
-      <c r="BS59" s="10"/>
-      <c r="BT59" s="10"/>
-      <c r="BU59" s="10"/>
-      <c r="BV59" s="10"/>
-      <c r="BW59" s="10"/>
-      <c r="BX59" s="10"/>
-      <c r="BY59" s="10"/>
-      <c r="BZ59" s="10"/>
-      <c r="CA59" s="10"/>
-      <c r="CB59" s="10"/>
-      <c r="CC59" s="10"/>
-      <c r="CD59" s="10"/>
-      <c r="CE59" s="10"/>
-      <c r="CF59" s="10"/>
-      <c r="CG59" s="10"/>
-      <c r="CH59" s="10"/>
-      <c r="CI59" s="10"/>
-      <c r="CJ59" s="10"/>
-      <c r="CK59" s="10"/>
-      <c r="CL59" s="10"/>
-      <c r="CM59" s="10"/>
-      <c r="CN59" s="10"/>
-      <c r="CO59" s="10"/>
-      <c r="CP59" s="10"/>
-      <c r="CQ59" s="10"/>
-      <c r="CR59" s="10"/>
-      <c r="CS59" s="10"/>
-      <c r="CT59" s="10"/>
-      <c r="CU59" s="10"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
+      <c r="AM59" s="9"/>
+      <c r="AN59" s="9"/>
+      <c r="AO59" s="9"/>
+      <c r="AP59" s="9"/>
+      <c r="AQ59" s="9"/>
+      <c r="AR59" s="9"/>
+      <c r="AS59" s="9"/>
+      <c r="AT59" s="9"/>
+      <c r="AU59" s="9"/>
+      <c r="AV59" s="9"/>
+      <c r="AW59" s="9"/>
+      <c r="AX59" s="9"/>
+      <c r="AY59" s="9"/>
+      <c r="AZ59" s="9"/>
+      <c r="BA59" s="9"/>
+      <c r="BB59" s="9"/>
+      <c r="BC59" s="9"/>
+      <c r="BD59" s="9"/>
+      <c r="BE59" s="9"/>
+      <c r="BF59" s="9"/>
+      <c r="BG59" s="9"/>
+      <c r="BH59" s="9"/>
+      <c r="BI59" s="9"/>
+      <c r="BJ59" s="9"/>
+      <c r="BK59" s="9"/>
+      <c r="BL59" s="9"/>
+      <c r="BM59" s="9"/>
+      <c r="BN59" s="9"/>
+      <c r="BO59" s="9"/>
+      <c r="BP59" s="9"/>
+      <c r="BQ59" s="9"/>
+      <c r="BR59" s="9"/>
+      <c r="BS59" s="9"/>
+      <c r="BT59" s="9"/>
+      <c r="BU59" s="9"/>
+      <c r="BV59" s="9"/>
+      <c r="BW59" s="9"/>
+      <c r="BX59" s="9"/>
+      <c r="BY59" s="9"/>
+      <c r="BZ59" s="9"/>
+      <c r="CA59" s="9"/>
+      <c r="CB59" s="9"/>
+      <c r="CC59" s="9"/>
+      <c r="CD59" s="9"/>
+      <c r="CE59" s="9"/>
+      <c r="CF59" s="9"/>
+      <c r="CG59" s="9"/>
+      <c r="CH59" s="9"/>
+      <c r="CI59" s="9"/>
+      <c r="CJ59" s="9"/>
+      <c r="CK59" s="9"/>
+      <c r="CL59" s="9"/>
+      <c r="CM59" s="9"/>
+      <c r="CN59" s="9"/>
+      <c r="CO59" s="9"/>
+      <c r="CP59" s="9"/>
+      <c r="CQ59" s="9"/>
+      <c r="CR59" s="9"/>
+      <c r="CS59" s="9"/>
+      <c r="CT59" s="9"/>
+      <c r="CU59" s="9"/>
     </row>
     <row r="60" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="10"/>
-      <c r="AK60" s="10"/>
-      <c r="AL60" s="10"/>
-      <c r="AM60" s="10"/>
-      <c r="AN60" s="10"/>
-      <c r="AO60" s="10"/>
-      <c r="AP60" s="10"/>
-      <c r="AQ60" s="10"/>
-      <c r="AR60" s="10"/>
-      <c r="AS60" s="10"/>
-      <c r="AT60" s="10"/>
-      <c r="AU60" s="10"/>
-      <c r="AV60" s="10"/>
-      <c r="AW60" s="10"/>
-      <c r="AX60" s="10"/>
-      <c r="AY60" s="10"/>
-      <c r="AZ60" s="10"/>
-      <c r="BA60" s="10"/>
-      <c r="BB60" s="10"/>
-      <c r="BC60" s="10"/>
-      <c r="BD60" s="10"/>
-      <c r="BE60" s="10"/>
-      <c r="BF60" s="10"/>
-      <c r="BG60" s="10"/>
-      <c r="BH60" s="10"/>
-      <c r="BI60" s="10"/>
-      <c r="BJ60" s="10"/>
-      <c r="BK60" s="10"/>
-      <c r="BL60" s="10"/>
-      <c r="BM60" s="10"/>
-      <c r="BN60" s="10"/>
-      <c r="BO60" s="10"/>
-      <c r="BP60" s="10"/>
-      <c r="BQ60" s="10"/>
-      <c r="BR60" s="10"/>
-      <c r="BS60" s="10"/>
-      <c r="BT60" s="10"/>
-      <c r="BU60" s="10"/>
-      <c r="BV60" s="10"/>
-      <c r="BW60" s="10"/>
-      <c r="BX60" s="10"/>
-      <c r="BY60" s="10"/>
-      <c r="BZ60" s="10"/>
-      <c r="CA60" s="10"/>
-      <c r="CB60" s="10"/>
-      <c r="CC60" s="10"/>
-      <c r="CD60" s="10"/>
-      <c r="CE60" s="10"/>
-      <c r="CF60" s="10"/>
-      <c r="CG60" s="10"/>
-      <c r="CH60" s="10"/>
-      <c r="CI60" s="10"/>
-      <c r="CJ60" s="10"/>
-      <c r="CK60" s="10"/>
-      <c r="CL60" s="10"/>
-      <c r="CM60" s="10"/>
-      <c r="CN60" s="10"/>
-      <c r="CO60" s="10"/>
-      <c r="CP60" s="10"/>
-      <c r="CQ60" s="10"/>
-      <c r="CR60" s="10"/>
-      <c r="CS60" s="10"/>
-      <c r="CT60" s="10"/>
-      <c r="CU60" s="10"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
+      <c r="AM60" s="9"/>
+      <c r="AN60" s="9"/>
+      <c r="AO60" s="9"/>
+      <c r="AP60" s="9"/>
+      <c r="AQ60" s="9"/>
+      <c r="AR60" s="9"/>
+      <c r="AS60" s="9"/>
+      <c r="AT60" s="9"/>
+      <c r="AU60" s="9"/>
+      <c r="AV60" s="9"/>
+      <c r="AW60" s="9"/>
+      <c r="AX60" s="9"/>
+      <c r="AY60" s="9"/>
+      <c r="AZ60" s="9"/>
+      <c r="BA60" s="9"/>
+      <c r="BB60" s="9"/>
+      <c r="BC60" s="9"/>
+      <c r="BD60" s="9"/>
+      <c r="BE60" s="9"/>
+      <c r="BF60" s="9"/>
+      <c r="BG60" s="9"/>
+      <c r="BH60" s="9"/>
+      <c r="BI60" s="9"/>
+      <c r="BJ60" s="9"/>
+      <c r="BK60" s="9"/>
+      <c r="BL60" s="9"/>
+      <c r="BM60" s="9"/>
+      <c r="BN60" s="9"/>
+      <c r="BO60" s="9"/>
+      <c r="BP60" s="9"/>
+      <c r="BQ60" s="9"/>
+      <c r="BR60" s="9"/>
+      <c r="BS60" s="9"/>
+      <c r="BT60" s="9"/>
+      <c r="BU60" s="9"/>
+      <c r="BV60" s="9"/>
+      <c r="BW60" s="9"/>
+      <c r="BX60" s="9"/>
+      <c r="BY60" s="9"/>
+      <c r="BZ60" s="9"/>
+      <c r="CA60" s="9"/>
+      <c r="CB60" s="9"/>
+      <c r="CC60" s="9"/>
+      <c r="CD60" s="9"/>
+      <c r="CE60" s="9"/>
+      <c r="CF60" s="9"/>
+      <c r="CG60" s="9"/>
+      <c r="CH60" s="9"/>
+      <c r="CI60" s="9"/>
+      <c r="CJ60" s="9"/>
+      <c r="CK60" s="9"/>
+      <c r="CL60" s="9"/>
+      <c r="CM60" s="9"/>
+      <c r="CN60" s="9"/>
+      <c r="CO60" s="9"/>
+      <c r="CP60" s="9"/>
+      <c r="CQ60" s="9"/>
+      <c r="CR60" s="9"/>
+      <c r="CS60" s="9"/>
+      <c r="CT60" s="9"/>
+      <c r="CU60" s="9"/>
     </row>
     <row r="61" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="10"/>
-      <c r="AI61" s="10"/>
-      <c r="AJ61" s="10"/>
-      <c r="AK61" s="10"/>
-      <c r="AL61" s="10"/>
-      <c r="AM61" s="10"/>
-      <c r="AN61" s="10"/>
-      <c r="AO61" s="10"/>
-      <c r="AP61" s="10"/>
-      <c r="AQ61" s="10"/>
-      <c r="AR61" s="10"/>
-      <c r="AS61" s="10"/>
-      <c r="AT61" s="10"/>
-      <c r="AU61" s="10"/>
-      <c r="AV61" s="10"/>
-      <c r="AW61" s="10"/>
-      <c r="AX61" s="10"/>
-      <c r="AY61" s="10"/>
-      <c r="AZ61" s="10"/>
-      <c r="BA61" s="10"/>
-      <c r="BB61" s="10"/>
-      <c r="BC61" s="10"/>
-      <c r="BD61" s="10"/>
-      <c r="BE61" s="10"/>
-      <c r="BF61" s="10"/>
-      <c r="BG61" s="10"/>
-      <c r="BH61" s="10"/>
-      <c r="BI61" s="10"/>
-      <c r="BJ61" s="10"/>
-      <c r="BK61" s="10"/>
-      <c r="BL61" s="10"/>
-      <c r="BM61" s="10"/>
-      <c r="BN61" s="10"/>
-      <c r="BO61" s="10"/>
-      <c r="BP61" s="10"/>
-      <c r="BQ61" s="10"/>
-      <c r="BR61" s="10"/>
-      <c r="BS61" s="10"/>
-      <c r="BT61" s="10"/>
-      <c r="BU61" s="10"/>
-      <c r="BV61" s="10"/>
-      <c r="BW61" s="10"/>
-      <c r="BX61" s="10"/>
-      <c r="BY61" s="10"/>
-      <c r="BZ61" s="10"/>
-      <c r="CA61" s="10"/>
-      <c r="CB61" s="10"/>
-      <c r="CC61" s="10"/>
-      <c r="CD61" s="10"/>
-      <c r="CE61" s="10"/>
-      <c r="CF61" s="10"/>
-      <c r="CG61" s="10"/>
-      <c r="CH61" s="10"/>
-      <c r="CI61" s="10"/>
-      <c r="CJ61" s="10"/>
-      <c r="CK61" s="10"/>
-      <c r="CL61" s="10"/>
-      <c r="CM61" s="10"/>
-      <c r="CN61" s="10"/>
-      <c r="CO61" s="10"/>
-      <c r="CP61" s="10"/>
-      <c r="CQ61" s="10"/>
-      <c r="CR61" s="10"/>
-      <c r="CS61" s="10"/>
-      <c r="CT61" s="10"/>
-      <c r="CU61" s="10"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="9"/>
+      <c r="AN61" s="9"/>
+      <c r="AO61" s="9"/>
+      <c r="AP61" s="9"/>
+      <c r="AQ61" s="9"/>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+      <c r="AV61" s="9"/>
+      <c r="AW61" s="9"/>
+      <c r="AX61" s="9"/>
+      <c r="AY61" s="9"/>
+      <c r="AZ61" s="9"/>
+      <c r="BA61" s="9"/>
+      <c r="BB61" s="9"/>
+      <c r="BC61" s="9"/>
+      <c r="BD61" s="9"/>
+      <c r="BE61" s="9"/>
+      <c r="BF61" s="9"/>
+      <c r="BG61" s="9"/>
+      <c r="BH61" s="9"/>
+      <c r="BI61" s="9"/>
+      <c r="BJ61" s="9"/>
+      <c r="BK61" s="9"/>
+      <c r="BL61" s="9"/>
+      <c r="BM61" s="9"/>
+      <c r="BN61" s="9"/>
+      <c r="BO61" s="9"/>
+      <c r="BP61" s="9"/>
+      <c r="BQ61" s="9"/>
+      <c r="BR61" s="9"/>
+      <c r="BS61" s="9"/>
+      <c r="BT61" s="9"/>
+      <c r="BU61" s="9"/>
+      <c r="BV61" s="9"/>
+      <c r="BW61" s="9"/>
+      <c r="BX61" s="9"/>
+      <c r="BY61" s="9"/>
+      <c r="BZ61" s="9"/>
+      <c r="CA61" s="9"/>
+      <c r="CB61" s="9"/>
+      <c r="CC61" s="9"/>
+      <c r="CD61" s="9"/>
+      <c r="CE61" s="9"/>
+      <c r="CF61" s="9"/>
+      <c r="CG61" s="9"/>
+      <c r="CH61" s="9"/>
+      <c r="CI61" s="9"/>
+      <c r="CJ61" s="9"/>
+      <c r="CK61" s="9"/>
+      <c r="CL61" s="9"/>
+      <c r="CM61" s="9"/>
+      <c r="CN61" s="9"/>
+      <c r="CO61" s="9"/>
+      <c r="CP61" s="9"/>
+      <c r="CQ61" s="9"/>
+      <c r="CR61" s="9"/>
+      <c r="CS61" s="9"/>
+      <c r="CT61" s="9"/>
+      <c r="CU61" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A20:CU20"/>
+    <mergeCell ref="A2:CU2"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:CU6"/>
+    <mergeCell ref="A9:CU9"/>
+    <mergeCell ref="A14:CU14"/>
     <mergeCell ref="A61:CU61"/>
     <mergeCell ref="A22:CU22"/>
     <mergeCell ref="A25:CU25"/>
@@ -8405,12 +8432,6 @@
     <mergeCell ref="A53:CU53"/>
     <mergeCell ref="A59:CU59"/>
     <mergeCell ref="A60:CU60"/>
-    <mergeCell ref="A20:CU20"/>
-    <mergeCell ref="A2:CU2"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:CU6"/>
-    <mergeCell ref="A9:CU9"/>
-    <mergeCell ref="A14:CU14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8419,19 +8440,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId4" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1027" r:id="rId4" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -8439,38 +8460,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId4" name="Control 9"/>
+        <control shapeId="1027" r:id="rId4" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId6" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId6" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId8" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId9">
+        <control shapeId="1028" r:id="rId6" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8489,13 +8485,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId8" name="Control 7"/>
+        <control shapeId="1028" r:id="rId6" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId8" name="Control 5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId8" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1030" r:id="rId10" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId11">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8519,8 +8540,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId12" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId13">
+        <control shapeId="1031" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8539,24 +8560,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId12" name="Control 5"/>
+        <control shapeId="1031" r:id="rId12" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId14" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId15">
+        <control shapeId="1032" r:id="rId14" name="Control 8">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -8564,24 +8585,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId14" name="Control 4"/>
+        <control shapeId="1032" r:id="rId14" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId16" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId17">
+        <control shapeId="1033" r:id="rId16" name="Control 9">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -8589,7 +8610,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId16" name="Control 3"/>
+        <control shapeId="1033" r:id="rId16" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
